--- a/.docs/resolutions_control/views.xlsx
+++ b/.docs/resolutions_control/views.xlsx
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +101,24 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -159,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,28 +196,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,8 +820,8 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -811,12 +834,40 @@
     <col min="18" max="18" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="15" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:34" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="17">
+        <v>320</v>
+      </c>
+      <c r="E1" s="18">
+        <v>424</v>
+      </c>
+      <c r="F1" s="18">
+        <v>540</v>
+      </c>
+      <c r="G1" s="13">
+        <v>619</v>
+      </c>
+      <c r="H1" s="17">
+        <v>620</v>
+      </c>
+      <c r="I1" s="17">
+        <v>768</v>
+      </c>
+      <c r="J1" s="17">
+        <v>940</v>
+      </c>
+      <c r="K1" s="17">
+        <v>966</v>
+      </c>
+      <c r="L1" s="13">
+        <v>1023</v>
+      </c>
+      <c r="M1" s="17">
+        <v>1024</v>
+      </c>
     </row>
     <row r="2" spans="1:34" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
@@ -826,62 +877,62 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>320</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>424</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>540</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B4" s="14"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="G4" s="11"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="12"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="12"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="12"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="12"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
-      <c r="G8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>619</v>
       </c>
       <c r="T8" s="1"/>
@@ -961,22 +1012,22 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="R18" s="11" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="R18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="10" t="s">
+      <c r="S18" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="T18" s="10"/>
+      <c r="T18" s="15"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
@@ -1034,6 +1085,16 @@
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="D18:G18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D1" location="Breakpoints!B3:E8" display="Breakpoints!B3:E8"/>
+    <hyperlink ref="E1" location="Breakpoints!G3:O8" display="Breakpoints!G3:O8"/>
+    <hyperlink ref="F1" location="Breakpoints!Q3:AA8" display="Breakpoints!Q3:AA8"/>
+    <hyperlink ref="H1" location="Breakpoints!B11:K17" display="Breakpoints!B11:K17"/>
+    <hyperlink ref="I1" location="Breakpoints!M11:AB17" display="Breakpoints!M11:AB17"/>
+    <hyperlink ref="J1" location="Breakpoints!AD11:AT17" display="Breakpoints!AD11:AT17"/>
+    <hyperlink ref="K1" location="Breakpoints!B19:O24" display="Breakpoints!B19:O24"/>
+    <hyperlink ref="M1" location="Breakpoints!B27:P31" display="Breakpoints!B27:P31"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/.docs/resolutions_control/views.xlsx
+++ b/.docs/resolutions_control/views.xlsx
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +124,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +165,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -181,7 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,19 +231,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,9 +855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19:O24"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -835,37 +871,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="16">
         <v>320</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="16">
         <v>424</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="16">
         <v>540</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="17">
         <v>619</v>
       </c>
-      <c r="H1" s="17">
+      <c r="H1" s="18">
         <v>620</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="18">
         <v>768</v>
       </c>
-      <c r="J1" s="17">
+      <c r="J1" s="18">
         <v>940</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="18">
         <v>966</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="19">
         <v>1023</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="20">
         <v>1024</v>
       </c>
     </row>
@@ -1015,19 +1053,19 @@
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="R18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="15" t="s">
+      <c r="S18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="T18" s="15"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
@@ -1081,9 +1119,10 @@
       <c r="B31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D1" location="Breakpoints!B3:E8" display="Breakpoints!B3:E8"/>

--- a/.docs/resolutions_control/views.xlsx
+++ b/.docs/resolutions_control/views.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Breakpoints" sheetId="1" r:id="rId1"/>
+    <sheet name="Gallery" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Desktop</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>Resolutions</t>
+  </si>
+  <si>
+    <t>Ширина контейнера с изображениями</t>
   </si>
 </sst>
 </file>
@@ -208,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,12 +235,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -252,9 +250,16 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -855,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -876,34 +881,34 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="16">
+      <c r="D1" s="14">
         <v>320</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="14">
         <v>424</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="14">
         <v>540</v>
       </c>
-      <c r="G1" s="17">
+      <c r="G1" s="15">
         <v>619</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="16">
         <v>620</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="16">
         <v>768</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="16">
         <v>940</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="16">
         <v>966</v>
       </c>
-      <c r="L1" s="19">
+      <c r="L1" s="17">
         <v>1023</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="18">
         <v>1024</v>
       </c>
     </row>
@@ -1053,19 +1058,19 @@
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
       <c r="R18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="14" t="s">
+      <c r="S18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="T18" s="14"/>
+      <c r="T18" s="19"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
@@ -1138,4 +1143,121 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>320</v>
+      </c>
+      <c r="B2">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>B2+50</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>424</v>
+      </c>
+      <c r="B3">
+        <f>B2*2</f>
+        <v>316</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">B3+50</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>540</v>
+      </c>
+      <c r="B4">
+        <f>B3+$B$2</f>
+        <v>474</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>768</v>
+      </c>
+      <c r="B6">
+        <f>B4+$B$2</f>
+        <v>632</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>966</v>
+      </c>
+      <c r="B7">
+        <f>B6+$B$2</f>
+        <v>790</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B7+$B$2</f>
+        <v>948</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/.docs/resolutions_control/views.xlsx
+++ b/.docs/resolutions_control/views.xlsx
@@ -138,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +187,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -212,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,6 +256,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -259,7 +266,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -876,11 +883,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="13" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="14">
         <v>320</v>
       </c>
@@ -1058,19 +1065,19 @@
       <c r="C18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="R18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="T18" s="19"/>
+      <c r="T18" s="20"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="9">
@@ -1147,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1168,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="19">
         <v>320</v>
       </c>
       <c r="B2">
@@ -1176,7 +1183,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="19">
         <v>424</v>
       </c>
       <c r="B3">
@@ -1192,7 +1199,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="19">
         <v>540</v>
       </c>
       <c r="B4">
@@ -1213,7 +1220,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="19">
         <v>768</v>
       </c>
       <c r="B6">
@@ -1229,7 +1236,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="19">
         <v>966</v>
       </c>
       <c r="B7">
@@ -1257,6 +1264,65 @@
         <v>998</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>320</v>
+      </c>
+      <c r="B11">
+        <v>188</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>424</v>
+      </c>
+      <c r="B12">
+        <f>$B$11*C12</f>
+        <v>376</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>620</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B15" si="1">$B$11*C13</f>
+        <v>564</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>768</v>
+      </c>
+      <c r="B14" s="23">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+      <c r="C14" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>966</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>940</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
